--- a/data/trans_orig/P14_n_R2-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P14_n_R2-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>182958</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160772</v>
+        <v>159281</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>205209</v>
+        <v>205715</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3132081401614202</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2752277287238839</v>
+        <v>0.2726758012455496</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3513011132872824</v>
+        <v>0.352167162359655</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>397</v>
@@ -765,19 +765,19 @@
         <v>408137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>377231</v>
+        <v>381089</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>438976</v>
+        <v>441839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4425045136639527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4089964646667072</v>
+        <v>0.4131792167309944</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4759412901509276</v>
+        <v>0.4790448219670653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>586</v>
@@ -786,19 +786,19 @@
         <v>591094</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>549948</v>
+        <v>554206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>628961</v>
+        <v>629258</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3923693381067593</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3650564977244802</v>
+        <v>0.3678826675615982</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4175054495056803</v>
+        <v>0.4177028166871524</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>128666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109590</v>
+        <v>107677</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149743</v>
+        <v>150629</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.220265925140185</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1876095194619681</v>
+        <v>0.184333617024065</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2563480213681219</v>
+        <v>0.2578648517267988</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>216</v>
@@ -836,19 +836,19 @@
         <v>222764</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196836</v>
+        <v>197055</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>249951</v>
+        <v>249471</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2415223956997759</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2134111892370669</v>
+        <v>0.2136481511731006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2709991909221945</v>
+        <v>0.2704777532301491</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>344</v>
@@ -857,19 +857,19 @@
         <v>351430</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>321138</v>
+        <v>319603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>386380</v>
+        <v>384261</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2332801159330465</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2131722003960374</v>
+        <v>0.2121529228991964</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2564797752278937</v>
+        <v>0.2550731655549652</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>272517</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>248441</v>
+        <v>247921</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>296885</v>
+        <v>295962</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4665259346983947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.425310176727342</v>
+        <v>0.4244196652554194</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5082425861826022</v>
+        <v>0.5066625262613055</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>272</v>
@@ -907,19 +907,19 @@
         <v>291432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>265600</v>
+        <v>262408</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>321324</v>
+        <v>318423</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3159730906362714</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2879651727604753</v>
+        <v>0.2845050246093033</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3483823003793303</v>
+        <v>0.3452362023877599</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>529</v>
@@ -928,19 +928,19 @@
         <v>563949</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>523405</v>
+        <v>526605</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>600145</v>
+        <v>600588</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3743505459601941</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.347437011815037</v>
+        <v>0.3495612523865584</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3983771572028083</v>
+        <v>0.3986714349163067</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>214431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>188796</v>
+        <v>189237</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>238008</v>
+        <v>241193</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1989352974680978</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1751526072663853</v>
+        <v>0.1755615980671749</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2208081398348822</v>
+        <v>0.2237630130671943</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>338</v>
@@ -1053,19 +1053,19 @@
         <v>351414</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>319399</v>
+        <v>319863</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>381207</v>
+        <v>382241</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3322943552470986</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3020211684714234</v>
+        <v>0.3024601111164113</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3604663027122199</v>
+        <v>0.3614440005026942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>558</v>
@@ -1074,19 +1074,19 @@
         <v>565845</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>523690</v>
+        <v>528365</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>607956</v>
+        <v>614062</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2649792030131743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.245238418163129</v>
+        <v>0.2474276076293849</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2846993336944834</v>
+        <v>0.2875586123186557</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>244504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>218574</v>
+        <v>216931</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>271796</v>
+        <v>277187</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2268345073394276</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2027788728589592</v>
+        <v>0.2012542561614259</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2521548659712804</v>
+        <v>0.2571564628715344</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>249</v>
@@ -1124,19 +1124,19 @@
         <v>251874</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>225116</v>
+        <v>223967</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>279297</v>
+        <v>277438</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2381705684343592</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2128681229649624</v>
+        <v>0.2117813258253343</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2641016201936694</v>
+        <v>0.2623435189669401</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>491</v>
@@ -1145,19 +1145,19 @@
         <v>496378</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>460199</v>
+        <v>458481</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>538480</v>
+        <v>536352</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2324485073231975</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2155062880853026</v>
+        <v>0.2147015728743297</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2521644528316415</v>
+        <v>0.2511676908427123</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>618959</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>587972</v>
+        <v>587056</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>653471</v>
+        <v>654849</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5742301951924746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5454826255579813</v>
+        <v>0.5446326890336773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6062480167989707</v>
+        <v>0.6075265438752095</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>441</v>
@@ -1195,19 +1195,19 @@
         <v>454250</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>423182</v>
+        <v>423481</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>485413</v>
+        <v>484067</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4295350763185422</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4001579098368185</v>
+        <v>0.4004405974361562</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4590026484308473</v>
+        <v>0.4577299307946568</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1034</v>
@@ -1216,19 +1216,19 @@
         <v>1073209</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1027659</v>
+        <v>1027140</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1118673</v>
+        <v>1118970</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5025722896636282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4812418859669599</v>
+        <v>0.4809986946774285</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5238626397031056</v>
+        <v>0.5240015627771137</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>161553</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>139427</v>
+        <v>139904</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>184294</v>
+        <v>186835</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1440383100548456</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1243114985999977</v>
+        <v>0.1247372038902484</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1643145367558423</v>
+        <v>0.1665801657720886</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>249</v>
@@ -1341,19 +1341,19 @@
         <v>253274</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>228466</v>
+        <v>226215</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>280183</v>
+        <v>280994</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2548179950921637</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2298588268313609</v>
+        <v>0.227594625743091</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2818916906050035</v>
+        <v>0.2827072309901633</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>413</v>
@@ -1362,19 +1362,19 @@
         <v>414826</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>378296</v>
+        <v>375329</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>451225</v>
+        <v>450827</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1960858415920494</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1788180568022571</v>
+        <v>0.1774156645227906</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2132911443716931</v>
+        <v>0.2131031023876583</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>246511</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>218816</v>
+        <v>220408</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274040</v>
+        <v>277563</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2197866738646931</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1950934769158081</v>
+        <v>0.1965128043671107</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2443312031885547</v>
+        <v>0.2474718925598374</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>223</v>
@@ -1412,19 +1412,19 @@
         <v>225422</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>201855</v>
+        <v>196833</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>254932</v>
+        <v>251694</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2267968043412957</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2030858009441028</v>
+        <v>0.1980329780878895</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2564861281660618</v>
+        <v>0.2532281443925586</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>469</v>
@@ -1433,19 +1433,19 @@
         <v>471934</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>435593</v>
+        <v>436081</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>513581</v>
+        <v>510801</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2230802379052298</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2059022891356065</v>
+        <v>0.2061326127078716</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2427665397756712</v>
+        <v>0.2414526965974368</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>713530</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>681857</v>
+        <v>679173</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>747676</v>
+        <v>745153</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6361750160804613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6079360888493898</v>
+        <v>0.6055428902073718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6666191289741746</v>
+        <v>0.6643695398603556</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>510</v>
@@ -1483,19 +1483,19 @@
         <v>515244</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>482416</v>
+        <v>483587</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>543821</v>
+        <v>546069</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5183852005665406</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4853569305734942</v>
+        <v>0.4865355688153666</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5471364920849644</v>
+        <v>0.5493979145344448</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1203</v>
@@ -1504,19 +1504,19 @@
         <v>1228774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1183609</v>
+        <v>1176608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1274221</v>
+        <v>1271670</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5808339205027208</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5594848094665379</v>
+        <v>0.5561756409553703</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6023165602453079</v>
+        <v>0.6011105485973832</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>72366</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56803</v>
+        <v>57730</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89373</v>
+        <v>88939</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1618193587310316</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1270198711806057</v>
+        <v>0.1290922551084377</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1998493962342957</v>
+        <v>0.1988803672732419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -1629,19 +1629,19 @@
         <v>94252</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78063</v>
+        <v>78269</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>111243</v>
+        <v>110243</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.276272037265357</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2288182673452056</v>
+        <v>0.2294218892398259</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3260759822655631</v>
+        <v>0.3231446190588442</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>164</v>
@@ -1650,19 +1650,19 @@
         <v>166618</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>145053</v>
+        <v>145343</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188877</v>
+        <v>190238</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2113482198821332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1839933489959793</v>
+        <v>0.1843617858685229</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2395832130389778</v>
+        <v>0.2413088035759152</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>89774</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>73355</v>
+        <v>74502</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>108620</v>
+        <v>109359</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2007473131806646</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1640325868415891</v>
+        <v>0.1665973121697728</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2428887572208183</v>
+        <v>0.2445426576955109</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>91</v>
@@ -1700,19 +1700,19 @@
         <v>92135</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77172</v>
+        <v>77143</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>109303</v>
+        <v>108377</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2700640359613886</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2262050862176999</v>
+        <v>0.2261204062512831</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3203882427614055</v>
+        <v>0.3176738365510949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>179</v>
@@ -1721,19 +1721,19 @@
         <v>181909</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>160409</v>
+        <v>158865</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>207186</v>
+        <v>206515</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2307438006549725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2034719638168888</v>
+        <v>0.2015135579357002</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2628071466507702</v>
+        <v>0.26195583278286</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>285060</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>261455</v>
+        <v>263290</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>304266</v>
+        <v>305206</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6374333280883038</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5846492474012726</v>
+        <v>0.5887526309522441</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6803798023851273</v>
+        <v>0.6824810468132538</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>156</v>
@@ -1771,19 +1771,19 @@
         <v>154771</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>137074</v>
+        <v>135519</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>172488</v>
+        <v>171586</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4536639267732543</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4017904181981558</v>
+        <v>0.3972336072006551</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5055969427645562</v>
+        <v>0.5029526370895619</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>432</v>
@@ -1792,19 +1792,19 @@
         <v>439831</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>409897</v>
+        <v>411856</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>464746</v>
+        <v>467229</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5579079794628944</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.519938226469969</v>
+        <v>0.5224219892288462</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5895110482203791</v>
+        <v>0.5926611673390987</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>631307</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>588654</v>
+        <v>588446</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>674352</v>
+        <v>676214</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1954009453595045</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.18219892994538</v>
+        <v>0.1821347791228526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2087241141835325</v>
+        <v>0.2093005798449855</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1076</v>
@@ -1917,19 +1917,19 @@
         <v>1107077</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1051651</v>
+        <v>1049418</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1160993</v>
+        <v>1156458</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3339629018956515</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3172430526022817</v>
+        <v>0.3165693551883645</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3502272746853227</v>
+        <v>0.3488592545745535</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1721</v>
@@ -1938,19 +1938,19 @@
         <v>1738384</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1664372</v>
+        <v>1670916</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1808193</v>
+        <v>1813518</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2655724595913752</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2542656953237507</v>
+        <v>0.2552654665574178</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2762372886184307</v>
+        <v>0.277050747057531</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>709456</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>663628</v>
+        <v>667300</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>759472</v>
+        <v>754252</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2195893167375854</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2054049234920157</v>
+        <v>0.2065414374374812</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2350703791793709</v>
+        <v>0.2334545008830353</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>779</v>
@@ -1988,19 +1988,19 @@
         <v>792195</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>743648</v>
+        <v>741570</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>839682</v>
+        <v>841878</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2389752155574835</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2243301665198342</v>
+        <v>0.2237033428710781</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2533001810911057</v>
+        <v>0.253962516624979</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1483</v>
@@ -2009,19 +2009,19 @@
         <v>1501651</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1437517</v>
+        <v>1433516</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1573970</v>
+        <v>1563920</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.229406859077089</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2196091638618921</v>
+        <v>0.2189979593579557</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2404549568599219</v>
+        <v>0.2389196791202903</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>1890066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1829223</v>
+        <v>1834411</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1944867</v>
+        <v>1945180</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5850097379029101</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.566177681000829</v>
+        <v>0.5677834253899969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6019714563311376</v>
+        <v>0.6020683924407357</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1379</v>
@@ -2059,19 +2059,19 @@
         <v>1415697</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1360425</v>
+        <v>1357121</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1470648</v>
+        <v>1472790</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.427061882546865</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4103883071653629</v>
+        <v>0.4093918910837725</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4436385617866255</v>
+        <v>0.4442846972241191</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3198</v>
@@ -2080,19 +2080,19 @@
         <v>3305763</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3226776</v>
+        <v>3230351</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3390290</v>
+        <v>3394096</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5050206813315358</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4929537372768423</v>
+        <v>0.4934998987732362</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5179337301082667</v>
+        <v>0.5185153121724082</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>247412</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219172</v>
+        <v>221065</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>275949</v>
+        <v>275327</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2369995192376946</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2099478838524044</v>
+        <v>0.2117609841826222</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2643357804660626</v>
+        <v>0.2637393959769558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>451</v>
@@ -2445,19 +2445,19 @@
         <v>486444</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>453872</v>
+        <v>452013</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>521891</v>
+        <v>521513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.434353028222974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4052684725354039</v>
+        <v>0.4036085570110636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4660044472778896</v>
+        <v>0.46566619125437</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>674</v>
@@ -2466,19 +2466,19 @@
         <v>733856</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>691668</v>
+        <v>685104</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>782712</v>
+        <v>778970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.339141741378509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3196450058542271</v>
+        <v>0.3166114244427484</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3617196119491422</v>
+        <v>0.3599905274587474</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>203210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>179767</v>
+        <v>178984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>232371</v>
+        <v>229835</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1946573231044039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1722013044650322</v>
+        <v>0.1714508300548138</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2225915476647161</v>
+        <v>0.2201624946713261</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>200</v>
@@ -2516,19 +2516,19 @@
         <v>218331</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>193837</v>
+        <v>192603</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>250135</v>
+        <v>247259</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1949508555697202</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1730797385849549</v>
+        <v>0.1719783467918307</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2233496020734279</v>
+        <v>0.2207814583755148</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>387</v>
@@ -2537,19 +2537,19 @@
         <v>421541</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>384570</v>
+        <v>385620</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>460212</v>
+        <v>461130</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1948092436779576</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1777236886365422</v>
+        <v>0.1782090419964501</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2126808689631919</v>
+        <v>0.2131050037568526</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>593313</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>558293</v>
+        <v>559978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>626909</v>
+        <v>627488</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5683431576579016</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5347969481110865</v>
+        <v>0.5364110725872934</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6005252408635213</v>
+        <v>0.601079736580665</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>380</v>
@@ -2587,19 +2587,19 @@
         <v>415153</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>383377</v>
+        <v>385390</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>449885</v>
+        <v>452770</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3706961162073057</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3423228766629652</v>
+        <v>0.3441200069243532</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4017084762835613</v>
+        <v>0.4042849862861284</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>948</v>
@@ -2608,19 +2608,19 @@
         <v>1008466</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>961496</v>
+        <v>958264</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1057236</v>
+        <v>1057118</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4660490149435334</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4443424347562287</v>
+        <v>0.4428485384887854</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4885872034973627</v>
+        <v>0.4885326631844296</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>244136</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>214570</v>
+        <v>216665</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>272469</v>
+        <v>271614</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2498643577707848</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.219604453479251</v>
+        <v>0.2217492619396469</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2788627521876342</v>
+        <v>0.2779876529074563</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>393</v>
@@ -2733,19 +2733,19 @@
         <v>418452</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>385244</v>
+        <v>388269</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>455007</v>
+        <v>450780</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.382406120784317</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3520578358620413</v>
+        <v>0.3548227689821435</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4158120106902428</v>
+        <v>0.4119485265000249</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>619</v>
@@ -2754,19 +2754,19 @@
         <v>662588</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>614977</v>
+        <v>620245</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>704907</v>
+        <v>706350</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3198846294900068</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2968987269483144</v>
+        <v>0.2994423594574914</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.340315371669861</v>
+        <v>0.3410117529090804</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>177403</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>152005</v>
+        <v>155394</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>203408</v>
+        <v>203816</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1815656055588566</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1555720267356958</v>
+        <v>0.1590407860970023</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2081806974847742</v>
+        <v>0.2085981314148562</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>234</v>
@@ -2804,19 +2804,19 @@
         <v>251532</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>225310</v>
+        <v>225900</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>279672</v>
+        <v>282776</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2298645652268891</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.205900922127601</v>
+        <v>0.2064400649432772</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2555802926288295</v>
+        <v>0.2584167954140125</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>403</v>
@@ -2825,19 +2825,19 @@
         <v>428935</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>391415</v>
+        <v>394473</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>467071</v>
+        <v>471502</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2070813841543631</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1889674247745628</v>
+        <v>0.1904437507877329</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2254927614061042</v>
+        <v>0.227631746844607</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>555534</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>523811</v>
+        <v>523201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>588920</v>
+        <v>586078</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5685700366703585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5361023190483477</v>
+        <v>0.5354774325518232</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6027386406662153</v>
+        <v>0.599830589302345</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>393</v>
@@ -2875,19 +2875,19 @@
         <v>424277</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>388299</v>
+        <v>390984</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>454500</v>
+        <v>457736</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3877293139887939</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3548499146382642</v>
+        <v>0.3573037033928085</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4153483020170863</v>
+        <v>0.4183056731010855</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>922</v>
@@ -2896,19 +2896,19 @@
         <v>979812</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>932200</v>
+        <v>934613</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1029142</v>
+        <v>1024253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4730339863556301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4500477180948456</v>
+        <v>0.4512127473902521</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4968496460106994</v>
+        <v>0.4944893446421035</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>240107</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>211788</v>
+        <v>215489</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>266711</v>
+        <v>269234</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2712716083012608</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2392779467121632</v>
+        <v>0.2434583885412993</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3013294546438431</v>
+        <v>0.3041799222884465</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>298</v>
@@ -3021,19 +3021,19 @@
         <v>320022</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>289747</v>
+        <v>291325</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>346707</v>
+        <v>346861</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3654072750984991</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3308381041813908</v>
+        <v>0.3326406815248232</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.395876147479562</v>
+        <v>0.396052286070071</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>520</v>
@@ -3042,19 +3042,19 @@
         <v>560129</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>521341</v>
+        <v>521612</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>598940</v>
+        <v>602726</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3180903430711963</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2960632689616718</v>
+        <v>0.2962172677262597</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3401309947758197</v>
+        <v>0.3422808524555341</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>184552</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159636</v>
+        <v>160948</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>210791</v>
+        <v>211878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2085058170017346</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1803565375542263</v>
+        <v>0.1818382259748964</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2381506678062648</v>
+        <v>0.2393792078383012</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>183</v>
@@ -3092,19 +3092,19 @@
         <v>193150</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>166419</v>
+        <v>168744</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>218009</v>
+        <v>217947</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2205421426500122</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.190020682539838</v>
+        <v>0.1926749877599426</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2489268880809538</v>
+        <v>0.2488561090291443</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>353</v>
@@ -3113,19 +3113,19 @@
         <v>377702</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>344625</v>
+        <v>343775</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>414823</v>
+        <v>417460</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2144921297066212</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1957083897345062</v>
+        <v>0.1952257893210245</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2355726898691524</v>
+        <v>0.2370702496005456</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>460457</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>432258</v>
+        <v>427638</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>491789</v>
+        <v>491222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5202225746970045</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4883631702474791</v>
+        <v>0.4831445204466792</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5556214521718194</v>
+        <v>0.554980741706395</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>340</v>
@@ -3163,19 +3163,19 @@
         <v>362624</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334183</v>
+        <v>335550</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>391651</v>
+        <v>392421</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4140505822514886</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3815767043383849</v>
+        <v>0.3831374808440392</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4471941695488002</v>
+        <v>0.4480735400935623</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>778</v>
@@ -3184,19 +3184,19 @@
         <v>823081</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>778388</v>
+        <v>776041</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>864768</v>
+        <v>862426</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4674175272221825</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4420370220887462</v>
+        <v>0.4407039950216756</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4910914485580167</v>
+        <v>0.4897613864326216</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>97026</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79756</v>
+        <v>79993</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117247</v>
+        <v>117531</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1928854180039677</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1585536770549968</v>
+        <v>0.159023847136925</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2330841505734839</v>
+        <v>0.2336499547742775</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>129</v>
@@ -3309,19 +3309,19 @@
         <v>143161</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>121711</v>
+        <v>123919</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>163794</v>
+        <v>165255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3162129124291393</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2688346439830464</v>
+        <v>0.2737107523813984</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3617872380889283</v>
+        <v>0.3650143199985242</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>215</v>
@@ -3330,19 +3330,19 @@
         <v>240187</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>213015</v>
+        <v>213707</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>266650</v>
+        <v>270180</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2513047363273915</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2228750992107727</v>
+        <v>0.2235994733466267</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2789935203391907</v>
+        <v>0.2826869687278335</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>101706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>83041</v>
+        <v>83391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122887</v>
+        <v>121153</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2021895868913235</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1650833958319192</v>
+        <v>0.1657789773515077</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2442968013036712</v>
+        <v>0.2408497415416686</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -3380,19 +3380,19 @@
         <v>92676</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>76845</v>
+        <v>75239</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113014</v>
+        <v>112414</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2047016125170441</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1697355249945421</v>
+        <v>0.1661877657301346</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.249625162787146</v>
+        <v>0.248298225973709</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>170</v>
@@ -3401,19 +3401,19 @@
         <v>194382</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>169746</v>
+        <v>167519</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>221628</v>
+        <v>222559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2033795147768253</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1776036049517645</v>
+        <v>0.175273840833468</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2318867801262111</v>
+        <v>0.23286166333437</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>304291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>278679</v>
+        <v>283624</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>325936</v>
+        <v>329359</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6049249951047088</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5540076511505807</v>
+        <v>0.5638390545125954</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6479543002623738</v>
+        <v>0.6547600120550351</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>204</v>
@@ -3451,19 +3451,19 @@
         <v>216899</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>194561</v>
+        <v>192367</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>239231</v>
+        <v>238355</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4790854750538165</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4297442931455479</v>
+        <v>0.4248995916855104</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5284112686253304</v>
+        <v>0.5264776215500294</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>488</v>
@@ -3472,19 +3472,19 @@
         <v>521190</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>487878</v>
+        <v>485168</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>551706</v>
+        <v>552515</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5453157488957833</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5104620718345343</v>
+        <v>0.5076266760459838</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5772440220648209</v>
+        <v>0.5780904197005584</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>828680</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>779471</v>
+        <v>776566</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>886185</v>
+        <v>880705</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2430755993369614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2286412128762867</v>
+        <v>0.227788997307444</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.259943422220456</v>
+        <v>0.2583359244008409</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1271</v>
@@ -3597,19 +3597,19 @@
         <v>1368080</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1309676</v>
+        <v>1312700</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1426775</v>
+        <v>1436447</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3861663021978456</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3696808269264252</v>
+        <v>0.3705342098876214</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4027341439973675</v>
+        <v>0.4054641977585334</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2028</v>
@@ -3618,19 +3618,19 @@
         <v>2196760</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2120997</v>
+        <v>2120900</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2281516</v>
+        <v>2275966</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.315995657818746</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3050974074132524</v>
+        <v>0.30508346586951</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3281875255010321</v>
+        <v>0.3273891994409683</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>666870</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>615286</v>
+        <v>619078</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>711193</v>
+        <v>723218</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1956120630506953</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1804809272867948</v>
+        <v>0.1815933199111643</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2086132532456067</v>
+        <v>0.2121405569474017</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>696</v>
@@ -3668,19 +3668,19 @@
         <v>755689</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>708058</v>
+        <v>700977</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>808411</v>
+        <v>803342</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2133073662001904</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1998628313626985</v>
+        <v>0.1978639290523236</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2281891730471824</v>
+        <v>0.226758392544481</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1313</v>
@@ -3689,19 +3689,19 @@
         <v>1422559</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1357379</v>
+        <v>1358429</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1491505</v>
+        <v>1494596</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2046297176901346</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.19525388138066</v>
+        <v>0.1954049264915878</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2145473609283067</v>
+        <v>0.2149920093104406</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>1913595</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1854110</v>
+        <v>1849181</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1975770</v>
+        <v>1976618</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5613123376123433</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5438636324861463</v>
+        <v>0.5424178720325452</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5795500825703772</v>
+        <v>0.5797988077955419</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1317</v>
@@ -3739,19 +3739,19 @@
         <v>1418953</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1363650</v>
+        <v>1360286</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1479097</v>
+        <v>1481838</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.400526331601964</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3849158919916644</v>
+        <v>0.3839662902750109</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4175029915054208</v>
+        <v>0.4182767146943627</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3136</v>
@@ -3760,19 +3760,19 @@
         <v>3332549</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3241879</v>
+        <v>3240918</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3415794</v>
+        <v>3409972</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4793746244911194</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.466332191574691</v>
+        <v>0.4661938600541033</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4913491948419866</v>
+        <v>0.4905116947772084</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>288242</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>258236</v>
+        <v>262831</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>319665</v>
+        <v>319963</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2555342264045434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2289328982177743</v>
+        <v>0.2330070816375944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2833914974489813</v>
+        <v>0.2836562886010424</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>476</v>
@@ -4125,19 +4125,19 @@
         <v>531978</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>497045</v>
+        <v>495277</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>569813</v>
+        <v>570900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4223515193963539</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.394617936408122</v>
+        <v>0.3932139859856601</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4523898583602203</v>
+        <v>0.4532534213977133</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>757</v>
@@ -4146,19 +4146,19 @@
         <v>820219</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>774852</v>
+        <v>772895</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>867264</v>
+        <v>864014</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3435390070172316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3245375852435018</v>
+        <v>0.3237176029471932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3632430592408638</v>
+        <v>0.3618820164508624</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>240190</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>212959</v>
+        <v>212239</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>269429</v>
+        <v>270400</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2129346756906079</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1887935780001697</v>
+        <v>0.1881559472842675</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.238856022458537</v>
+        <v>0.2397168756929941</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>217</v>
@@ -4196,19 +4196,19 @@
         <v>227020</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>199468</v>
+        <v>198718</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253948</v>
+        <v>255306</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1802374516436539</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1583630885840566</v>
+        <v>0.1577676221192114</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.201616625333647</v>
+        <v>0.2026942336362479</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>443</v>
@@ -4217,19 +4217,19 @@
         <v>467210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>431815</v>
+        <v>425856</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>512430</v>
+        <v>505457</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1956851928744747</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1808603833556829</v>
+        <v>0.1783644802981829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.214625292613344</v>
+        <v>0.2117047597584767</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>599565</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>565403</v>
+        <v>566705</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>634727</v>
+        <v>631778</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5315310979048486</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5012452929729904</v>
+        <v>0.5023991134426669</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5627026896253552</v>
+        <v>0.5600879507655596</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>495</v>
@@ -4267,19 +4267,19 @@
         <v>500563</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>464736</v>
+        <v>464751</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>533312</v>
+        <v>536451</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3974110289599921</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3689665899355621</v>
+        <v>0.3689788305035471</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4234109675559078</v>
+        <v>0.4259030230809584</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1054</v>
@@ -4288,19 +4288,19 @@
         <v>1100129</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1052721</v>
+        <v>1047580</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1152445</v>
+        <v>1150387</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4607758001082937</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4409195861593598</v>
+        <v>0.438766185851476</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.482687683246079</v>
+        <v>0.4818257101754299</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>216740</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>192574</v>
+        <v>192535</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>242613</v>
+        <v>243752</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2384842741339917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2118937476685535</v>
+        <v>0.211850132014969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2669523033111839</v>
+        <v>0.2682056272653636</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>309</v>
@@ -4413,19 +4413,19 @@
         <v>343887</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>312866</v>
+        <v>315498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>375977</v>
+        <v>374848</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3416751077415529</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3108534688896187</v>
+        <v>0.3134682051156745</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3735586319429501</v>
+        <v>0.3724367777003406</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>529</v>
@@ -4434,19 +4434,19 @@
         <v>560628</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>519901</v>
+        <v>520463</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>601053</v>
+        <v>600532</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2927102548003667</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2714460492502484</v>
+        <v>0.2717398815755969</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3138165481593345</v>
+        <v>0.3135447310955307</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>179538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>154805</v>
+        <v>157724</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>204625</v>
+        <v>205979</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1975497390858932</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1703351963334271</v>
+        <v>0.1735469103658325</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.225152816369044</v>
+        <v>0.2266429479849921</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>211</v>
@@ -4484,19 +4484,19 @@
         <v>223059</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>195240</v>
+        <v>197190</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>250517</v>
+        <v>251528</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2216235636598785</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1939838345350067</v>
+        <v>0.1959213856112548</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2489053092096039</v>
+        <v>0.2499100495314946</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>384</v>
@@ -4505,19 +4505,19 @@
         <v>402597</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>367075</v>
+        <v>369707</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>441324</v>
+        <v>440630</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2102003467055508</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1916542742196021</v>
+        <v>0.1930281136367934</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2304204494053186</v>
+        <v>0.2300577426553431</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>512546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>481560</v>
+        <v>481994</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>542247</v>
+        <v>542407</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5639659867801151</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5298708248758417</v>
+        <v>0.5303489447139644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5966466246224572</v>
+        <v>0.5968226208609271</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>431</v>
@@ -4555,19 +4555,19 @@
         <v>439529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>407425</v>
+        <v>407603</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>468045</v>
+        <v>469370</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4367013285985687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4048038318169284</v>
+        <v>0.4049803645247856</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4650334791369971</v>
+        <v>0.4663498875457167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>919</v>
@@ -4576,19 +4576,19 @@
         <v>952075</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>904097</v>
+        <v>905445</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>994861</v>
+        <v>995068</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4970893984940825</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4720391539542201</v>
+        <v>0.4727431880347334</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5194280773799866</v>
+        <v>0.5195366210649154</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>185032</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>162861</v>
+        <v>160864</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>207861</v>
+        <v>211382</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.224619062661132</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1977051326386983</v>
+        <v>0.1952803942228245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.252331824805285</v>
+        <v>0.2566062858940595</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>217</v>
@@ -4701,19 +4701,19 @@
         <v>248121</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>222961</v>
+        <v>222602</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>277848</v>
+        <v>278268</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3217920232359726</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2891617642161728</v>
+        <v>0.2886963203140346</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3603458493862339</v>
+        <v>0.3608902670055096</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>399</v>
@@ -4722,19 +4722,19 @@
         <v>433153</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>397852</v>
+        <v>396488</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>470626</v>
+        <v>468651</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2716000076954591</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2494656071573552</v>
+        <v>0.2486100636075708</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2950968031758594</v>
+        <v>0.2938583162015006</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>148475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>127380</v>
+        <v>127472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>173754</v>
+        <v>172040</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1802405239343735</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1546330449540353</v>
+        <v>0.1547439426535866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2109281587510554</v>
+        <v>0.2088474937028644</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>165</v>
@@ -4772,19 +4772,19 @@
         <v>177318</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154300</v>
+        <v>153799</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>204384</v>
+        <v>200962</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2299668757878544</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2001138626583876</v>
+        <v>0.1994649529136984</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2650694787086972</v>
+        <v>0.2606308938590685</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>309</v>
@@ -4793,19 +4793,19 @@
         <v>325793</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>293473</v>
+        <v>292335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>358750</v>
+        <v>357101</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2042820987651281</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1840166038882276</v>
+        <v>0.1833030183687145</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2249471619575008</v>
+        <v>0.2239133730322665</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>490252</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463513</v>
+        <v>461160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>523211</v>
+        <v>520738</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5951404134044944</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5626799354395299</v>
+        <v>0.5598235528676316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6351510526659211</v>
+        <v>0.6321481338407096</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>346</v>
@@ -4843,19 +4843,19 @@
         <v>345620</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317091</v>
+        <v>316848</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>373120</v>
+        <v>371783</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.448241100976173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4112407907612263</v>
+        <v>0.4109255213039649</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4839064951705645</v>
+        <v>0.4821715966179427</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>807</v>
@@ -4864,19 +4864,19 @@
         <v>835873</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>795438</v>
+        <v>796328</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>875113</v>
+        <v>877677</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5241178935394128</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4987643531620538</v>
+        <v>0.4993221734348368</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5487230454377864</v>
+        <v>0.5503304898150486</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>112779</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95626</v>
+        <v>94714</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134968</v>
+        <v>132227</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2225755987817158</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1887228954816442</v>
+        <v>0.1869221364191394</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2663662169158248</v>
+        <v>0.2609564777344203</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -4989,19 +4989,19 @@
         <v>147507</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>126422</v>
+        <v>127296</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>169400</v>
+        <v>168568</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3012213547123378</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2581633025249281</v>
+        <v>0.2599487597895302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3459282491193396</v>
+        <v>0.3442294837883786</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>235</v>
@@ -5010,19 +5010,19 @@
         <v>260286</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>231164</v>
+        <v>232942</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>287413</v>
+        <v>290330</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.261227439340854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2319996486763921</v>
+        <v>0.2337837290262648</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2884522224074152</v>
+        <v>0.2913798848994402</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>101603</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81806</v>
+        <v>81328</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>121196</v>
+        <v>120211</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2005178427164223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1614479703931735</v>
+        <v>0.1605042317773474</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2391859698196056</v>
+        <v>0.2372424691577412</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>93</v>
@@ -5060,19 +5060,19 @@
         <v>100569</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83879</v>
+        <v>83372</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>119413</v>
+        <v>119618</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2053694660813889</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1712878740818848</v>
+        <v>0.1702509458180526</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2438511287871321</v>
+        <v>0.2442681676847728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>187</v>
@@ -5081,19 +5081,19 @@
         <v>202171</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177707</v>
+        <v>177646</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>230446</v>
+        <v>229944</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2029022583856048</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1783489844297828</v>
+        <v>0.1782885897959836</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2312788836885455</v>
+        <v>0.2307749656362088</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>292319</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>270986</v>
+        <v>270177</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>319167</v>
+        <v>316446</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5769065585018619</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.534803999669999</v>
+        <v>0.5332084553374045</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6298912193695931</v>
+        <v>0.6245214282156011</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>234</v>
@@ -5131,19 +5131,19 @@
         <v>241621</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>220178</v>
+        <v>221055</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>265758</v>
+        <v>265770</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4934091792062733</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4496190777486684</v>
+        <v>0.4514117428080885</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5426981420172269</v>
+        <v>0.5427225820269379</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>504</v>
@@ -5152,19 +5152,19 @@
         <v>533940</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>502489</v>
+        <v>502830</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>566900</v>
+        <v>564635</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5358703022735412</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5043050307546016</v>
+        <v>0.5046478606838495</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5689495739652503</v>
+        <v>0.5666762453770111</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>802794</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>755829</v>
+        <v>754574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>852010</v>
+        <v>852014</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2384099591925549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2244624934781711</v>
+        <v>0.2240899190382053</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2530260768144916</v>
+        <v>0.2530271984995691</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1130</v>
@@ -5277,19 +5277,19 @@
         <v>1271493</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1217960</v>
+        <v>1212828</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1333308</v>
+        <v>1328446</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3605238812959262</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3453451386398556</v>
+        <v>0.3438897810581883</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3780512658713941</v>
+        <v>0.3766727058535411</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1920</v>
@@ -5298,19 +5298,19 @@
         <v>2074287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1995321</v>
+        <v>1994600</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2155067</v>
+        <v>2151590</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3008796119850609</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2894255105610896</v>
+        <v>0.2893209439113383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3125969159027374</v>
+        <v>0.3120926221282604</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>669805</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>618943</v>
+        <v>621369</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>718378</v>
+        <v>718753</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1989156709104368</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1838110003767766</v>
+        <v>0.1845312210432946</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2133404962587294</v>
+        <v>0.21345206255694</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>686</v>
@@ -5348,19 +5348,19 @@
         <v>727965</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>678513</v>
+        <v>682554</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>777284</v>
+        <v>777782</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2064100994336674</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1923881047711931</v>
+        <v>0.1935338776305479</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2203940156064099</v>
+        <v>0.2205352603046258</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1323</v>
@@ -5369,19 +5369,19 @@
         <v>1397771</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1334349</v>
+        <v>1328336</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1465587</v>
+        <v>1459907</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2027495855015033</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1935501829565201</v>
+        <v>0.1926779085552049</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2125863924893257</v>
+        <v>0.2117625124540614</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>1894683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1834550</v>
+        <v>1833900</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1951728</v>
+        <v>1954163</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5626743698970083</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5448162165112714</v>
+        <v>0.5446231079945085</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5796151809308284</v>
+        <v>0.5803383562434117</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1506</v>
@@ -5419,19 +5419,19 @@
         <v>1527334</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1466569</v>
+        <v>1464553</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1585480</v>
+        <v>1583649</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4330660192704064</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4158365399928912</v>
+        <v>0.415264973041011</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4495531418858169</v>
+        <v>0.4490338406723184</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3284</v>
@@ -5440,19 +5440,19 @@
         <v>3422018</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3330591</v>
+        <v>3332677</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3496371</v>
+        <v>3507773</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4963708025134358</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4831091708613777</v>
+        <v>0.4834117064436582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5071559253647521</v>
+        <v>0.5088097428352044</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>195618</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>173483</v>
+        <v>171020</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219699</v>
+        <v>220089</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3922258563167071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3478426697169301</v>
+        <v>0.3429038437382796</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4405098898718258</v>
+        <v>0.4412915565910498</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>521</v>
@@ -5805,19 +5805,19 @@
         <v>334495</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>311265</v>
+        <v>308428</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>357990</v>
+        <v>353856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5364111142537575</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4991579370283115</v>
+        <v>0.4946087841241433</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5740876134239405</v>
+        <v>0.5674589101593052</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>733</v>
@@ -5826,19 +5826,19 @@
         <v>530114</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>494974</v>
+        <v>499163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>560777</v>
+        <v>564163</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4723376900577198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4410271859257689</v>
+        <v>0.4447599782861705</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4996591577664278</v>
+        <v>0.5026758277411739</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>87523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69572</v>
+        <v>69915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106766</v>
+        <v>107343</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1754876899282323</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1394963315583306</v>
+        <v>0.1401831341157534</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2140723490659405</v>
+        <v>0.2152294113370982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>137</v>
@@ -5876,19 +5876,19 @@
         <v>110261</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93222</v>
+        <v>94443</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129375</v>
+        <v>130275</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1768190676791462</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1494951780598314</v>
+        <v>0.1514526186073898</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2074717332693814</v>
+        <v>0.2089153121820982</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>217</v>
@@ -5897,19 +5897,19 @@
         <v>197784</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>174423</v>
+        <v>172395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>224666</v>
+        <v>227240</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1762274265320553</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1554124531807653</v>
+        <v>0.1536061360724573</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2001804096494759</v>
+        <v>0.202473454724043</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>215598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>190644</v>
+        <v>189683</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>242226</v>
+        <v>240380</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4322864537550606</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3822515345914524</v>
+        <v>0.3803258279182929</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4856777868906723</v>
+        <v>0.4819758210235538</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>203</v>
@@ -5947,19 +5947,19 @@
         <v>178824</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>156850</v>
+        <v>158620</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>200414</v>
+        <v>203381</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2867698180670961</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2515319979769118</v>
+        <v>0.254369257425698</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.321393222086397</v>
+        <v>0.3261511888680386</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>366</v>
@@ -5968,19 +5968,19 @@
         <v>394422</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>362241</v>
+        <v>359136</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>428627</v>
+        <v>422799</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.351434883410225</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3227608476495176</v>
+        <v>0.3199943632797806</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3819112653781112</v>
+        <v>0.3767189293833735</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>296495</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>265334</v>
+        <v>266141</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>324128</v>
+        <v>326429</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3088045624567666</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2763502620734277</v>
+        <v>0.2771910203496109</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3375856678221968</v>
+        <v>0.3399821722092908</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>827</v>
@@ -6093,19 +6093,19 @@
         <v>501054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473867</v>
+        <v>471648</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>532549</v>
+        <v>529778</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4490339581782761</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4246690261890728</v>
+        <v>0.4226810821573287</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4772586856111719</v>
+        <v>0.4747761464098824</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1189</v>
@@ -6114,19 +6114,19 @@
         <v>797549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>753245</v>
+        <v>753832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>838365</v>
+        <v>838149</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3841783248430017</v>
+        <v>0.3841783248430016</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3628371886860378</v>
+        <v>0.3631200513038094</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4038396415618322</v>
+        <v>0.403735593616495</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>205906</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>181092</v>
+        <v>178947</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>234299</v>
+        <v>236223</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2144543008378802</v>
+        <v>0.2144543008378803</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1886110602334554</v>
+        <v>0.1863765701889599</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2440270358894904</v>
+        <v>0.2460308057587705</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>295</v>
@@ -6164,19 +6164,19 @@
         <v>210510</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>182542</v>
+        <v>187874</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>233697</v>
+        <v>233541</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.188654483995001</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1635902508404456</v>
+        <v>0.1683684140459238</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2094346607210651</v>
+        <v>0.2092946042225231</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>495</v>
@@ -6185,19 +6185,19 @@
         <v>416415</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>380505</v>
+        <v>381542</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>451488</v>
+        <v>453101</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2005868142505065</v>
+        <v>0.2005868142505064</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1832889726016</v>
+        <v>0.1837880952808673</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2174813520455902</v>
+        <v>0.2182582253700797</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>457737</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>426252</v>
+        <v>420493</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>494423</v>
+        <v>492768</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.4767411367053533</v>
+        <v>0.4767411367053532</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4439487419034465</v>
+        <v>0.4379515240044579</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.514950318942432</v>
+        <v>0.5132263305017237</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>485</v>
@@ -6235,19 +6235,19 @@
         <v>404285</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>371397</v>
+        <v>372404</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>432413</v>
+        <v>434542</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3623115578267228</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3328382397797599</v>
+        <v>0.3337409084956355</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.387519289868557</v>
+        <v>0.389427610826496</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>833</v>
@@ -6256,19 +6256,19 @@
         <v>862022</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>817050</v>
+        <v>818612</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>911573</v>
+        <v>910867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4152348609064918</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3935720202904568</v>
+        <v>0.3943246096031226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4391034292252416</v>
+        <v>0.4387637561964466</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>299967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>272345</v>
+        <v>272638</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>329026</v>
+        <v>331092</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2866440498975227</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2602492675769822</v>
+        <v>0.2605290707408704</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3144128135095956</v>
+        <v>0.3163864455010081</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>720</v>
@@ -6381,19 +6381,19 @@
         <v>446647</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>420005</v>
+        <v>420253</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>474959</v>
+        <v>475890</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4263359162863483</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4009053705793475</v>
+        <v>0.4011418464371292</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4533598994402692</v>
+        <v>0.4542491035487332</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1090</v>
@@ -6402,19 +6402,19 @@
         <v>746614</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>705312</v>
+        <v>705686</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>789311</v>
+        <v>788099</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.356528751592824</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.336805700414299</v>
+        <v>0.3369841316868054</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3769173626933522</v>
+        <v>0.3763387487915413</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>255581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226184</v>
+        <v>226915</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>285226</v>
+        <v>287004</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2442289898369569</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2161378429090863</v>
+        <v>0.2168365828046236</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2725577464011819</v>
+        <v>0.274257239041073</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>309</v>
@@ -6452,19 +6452,19 @@
         <v>212871</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>191727</v>
+        <v>191520</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>237713</v>
+        <v>236333</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2031903314346055</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1830077536866097</v>
+        <v>0.1828105046245471</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.226902520585</v>
+        <v>0.2255856240519808</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>559</v>
@@ -6473,19 +6473,19 @@
         <v>468451</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>428879</v>
+        <v>434223</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>505231</v>
+        <v>510298</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2236982712306149</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2048015565383071</v>
+        <v>0.2073535082250065</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2412617030980641</v>
+        <v>0.2436810441120152</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>490932</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>455654</v>
+        <v>455181</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>528588</v>
+        <v>524664</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4691269602655203</v>
+        <v>0.4691269602655204</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.435416073769062</v>
+        <v>0.4349644588002488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5051108283890858</v>
+        <v>0.5013615124132703</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>487</v>
@@ -6523,19 +6523,19 @@
         <v>388124</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>358837</v>
+        <v>363335</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>417245</v>
+        <v>417148</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3704737522790462</v>
+        <v>0.3704737522790463</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3425186970852701</v>
+        <v>0.3468119160388193</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3982703440214352</v>
+        <v>0.3981783436657467</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>896</v>
@@ -6544,19 +6544,19 @@
         <v>879055</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>831245</v>
+        <v>834104</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>925613</v>
+        <v>922089</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.419772977176561</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3969421017314216</v>
+        <v>0.3983073996747798</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4420053946617558</v>
+        <v>0.4403226009378349</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>331732</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>297547</v>
+        <v>300042</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>363327</v>
+        <v>366509</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3399141304813509</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3048861625413085</v>
+        <v>0.3074419824801538</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3722880299349682</v>
+        <v>0.3755493242308678</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>674</v>
@@ -6669,19 +6669,19 @@
         <v>424329</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>398881</v>
+        <v>399029</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>455573</v>
+        <v>452218</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4661188765056755</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4381643690311657</v>
+        <v>0.4383270093850757</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5004403067583932</v>
+        <v>0.4967549205516886</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1042</v>
@@ -6690,19 +6690,19 @@
         <v>756061</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>716314</v>
+        <v>712988</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>800797</v>
+        <v>794984</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.4008224858706133</v>
+        <v>0.4008224858706132</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.37975101409169</v>
+        <v>0.3779875878050495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4245388908439485</v>
+        <v>0.4214570727800619</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>222465</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>194419</v>
+        <v>194561</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>254045</v>
+        <v>252525</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2279519442025373</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1992141651788673</v>
+        <v>0.1993599088075444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2603111699377225</v>
+        <v>0.2587536973338906</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>292</v>
@@ -6740,19 +6740,19 @@
         <v>210776</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>188533</v>
+        <v>188619</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>235015</v>
+        <v>234134</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2315343701674275</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.207100173369462</v>
+        <v>0.2071952723960672</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2581608474163552</v>
+        <v>0.257192768945339</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>514</v>
@@ -6761,19 +6761,19 @@
         <v>433241</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>398004</v>
+        <v>399919</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>471880</v>
+        <v>472555</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2296808781824306</v>
+        <v>0.2296808781824305</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.21100008239452</v>
+        <v>0.2120155556970723</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2501650427173182</v>
+        <v>0.2505230165175448</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>421732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>389268</v>
+        <v>386715</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>457249</v>
+        <v>454331</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4321339253161117</v>
+        <v>0.4321339253161119</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3988688119812373</v>
+        <v>0.3962530461450885</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4685267362683062</v>
+        <v>0.4655366942501051</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>358</v>
@@ -6811,19 +6811,19 @@
         <v>275240</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>247562</v>
+        <v>248053</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>300570</v>
+        <v>299378</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.302346753326897</v>
+        <v>0.3023467533268971</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2719428603062594</v>
+        <v>0.2724821645000252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3301709807900297</v>
+        <v>0.3288626660371113</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>715</v>
@@ -6832,19 +6832,19 @@
         <v>696972</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>652981</v>
+        <v>654384</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>744316</v>
+        <v>742143</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3694966359469563</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3461749789526828</v>
+        <v>0.3469187305442022</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3945957045536077</v>
+        <v>0.3934438673427847</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>1123812</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1068902</v>
+        <v>1073520</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1182803</v>
+        <v>1189994</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3228153969204074</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.307042389998586</v>
+        <v>0.3083689957362891</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3397605132823075</v>
+        <v>0.3418262849529465</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2742</v>
@@ -6957,19 +6957,19 @@
         <v>1706526</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1647049</v>
+        <v>1649783</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1757630</v>
+        <v>1755787</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4615455138305239</v>
+        <v>0.461545513830524</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4454595415337442</v>
+        <v>0.4461988621226631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4753671943487068</v>
+        <v>0.4748687158397132</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4054</v>
@@ -6978,19 +6978,19 @@
         <v>2830338</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2742783</v>
+        <v>2750170</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2902815</v>
+        <v>2918682</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3942688542228738</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3820722943827145</v>
+        <v>0.3831013457916882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4043649200263709</v>
+        <v>0.4065752965212813</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>771473</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>719390</v>
+        <v>720485</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>826530</v>
+        <v>831369</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2216060160392095</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2066449972693136</v>
+        <v>0.2069596133668303</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2374210848148956</v>
+        <v>0.2388108972352145</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1033</v>
@@ -7028,19 +7028,19 @@
         <v>744418</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>703640</v>
+        <v>695888</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>788943</v>
+        <v>787139</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2013345587972779</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1903058145689154</v>
+        <v>0.1882093168515576</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2133768859251264</v>
+        <v>0.2128889936214512</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1785</v>
@@ -7049,19 +7049,19 @@
         <v>1515891</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1446032</v>
+        <v>1446659</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1589642</v>
+        <v>1579068</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2111651273788648</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2014337132986111</v>
+        <v>0.2015209838743995</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2214386756268446</v>
+        <v>0.2199657518828291</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>1585998</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1522150</v>
+        <v>1524221</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1654937</v>
+        <v>1652537</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4555785870403831</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4372380537967906</v>
+        <v>0.4378330530679845</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.475381328676221</v>
+        <v>0.4746916930548994</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1533</v>
@@ -7099,19 +7099,19 @@
         <v>1246473</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1196661</v>
+        <v>1190613</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1301850</v>
+        <v>1300187</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.337119927372198</v>
+        <v>0.3371199273721981</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3236478316051086</v>
+        <v>0.3220122166442078</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3520972879056024</v>
+        <v>0.3516474587412271</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2810</v>
@@ -7120,19 +7120,19 @@
         <v>2832471</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2746837</v>
+        <v>2744703</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2916833</v>
+        <v>2919712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3945660183982615</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.382637052695921</v>
+        <v>0.3823398355817423</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4063176373733309</v>
+        <v>0.4067187595848926</v>
       </c>
     </row>
     <row r="23">
